--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/79.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/79.xlsx
@@ -479,13 +479,13 @@
         <v>-0.0134980136048938</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.649476245295338</v>
+        <v>-2.567467530941148</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.03624304941715375</v>
+        <v>-0.1457896823265189</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2279312833820558</v>
+        <v>0.1627118554967092</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.006950619769292822</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.802700517707986</v>
+        <v>-2.693175841942983</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1138804622810908</v>
+        <v>-0.2305326710745709</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2436160035053089</v>
+        <v>0.1907499090068175</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.003434668107020034</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.03837295232242</v>
+        <v>-2.907128696298081</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2137232572233944</v>
+        <v>-0.3370486081411749</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2598081776316163</v>
+        <v>0.1900966839620203</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.004710207674240357</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.234179141742571</v>
+        <v>-3.06413935627198</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2779308267060159</v>
+        <v>-0.4026266693844494</v>
       </c>
       <c r="G5" t="n">
-        <v>0.30067591257712</v>
+        <v>0.2404560044790772</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.007898864727516899</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.382087650497021</v>
+        <v>-3.236432188722478</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3350376996699366</v>
+        <v>-0.4409290779635507</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2884354145154632</v>
+        <v>0.2298915684371241</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.005406288102531469</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.135713547688365</v>
+        <v>-3.018742655341284</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.40265655549761</v>
+        <v>-0.4894250908131423</v>
       </c>
       <c r="G7" t="n">
-        <v>0.286060993320883</v>
+        <v>0.2376601280968641</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.00913604275269736</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.819441010522689</v>
+        <v>-2.703920204584577</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.4352098517776841</v>
+        <v>-0.5093176536852801</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2758234747616669</v>
+        <v>0.2498426836942298</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.04218841638954845</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.391494437127152</v>
+        <v>-2.282577852276868</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.4575732033113284</v>
+        <v>-0.5501231767217555</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2455464024472165</v>
+        <v>0.239270318683479</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1004840041704789</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.036064992514251</v>
+        <v>-1.881740423200751</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5134907309555904</v>
+        <v>-0.6232148507818893</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3044921862515326</v>
+        <v>0.2785107852634188</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1875119307782884</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.574581930707722</v>
+        <v>-1.337806454549388</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6160781689432603</v>
+        <v>-0.76312760442451</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3062402189110925</v>
+        <v>0.3044744985519069</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3047137260129198</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.128352985026661</v>
+        <v>-0.817638654988191</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7946507446815566</v>
+        <v>-1.014322825222521</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3170644811613403</v>
+        <v>0.3352291387562509</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.448640459501232</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.5780136294280906</v>
+        <v>-0.222703119347156</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.071042398556707</v>
+        <v>-1.373488033980503</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3500221548500984</v>
+        <v>0.4022624707342463</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.6147450464536638</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01454329157981134</v>
+        <v>0.4222599399627848</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.448707721281811</v>
+        <v>-1.731849977207208</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4272082264132418</v>
+        <v>0.5052426976377419</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7959909061205893</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4759305198339069</v>
+        <v>0.9870525858382539</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.864538830354425</v>
+        <v>-2.097364460210138</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4961829359053262</v>
+        <v>0.5983910032320587</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.9864533594287269</v>
       </c>
       <c r="E16" t="n">
-        <v>1.052436692306322</v>
+        <v>1.579473418529057</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.32780834982315</v>
+        <v>-2.517007573512428</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5869104663336301</v>
+        <v>0.7042018719963421</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.184183096735174</v>
       </c>
       <c r="E17" t="n">
-        <v>1.56568372194846</v>
+        <v>2.09808896996793</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.669015664095639</v>
+        <v>-2.804480266242736</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7067525602665025</v>
+        <v>0.8353951996441726</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.381167709405564</v>
       </c>
       <c r="E18" t="n">
-        <v>2.02542424038152</v>
+        <v>2.530841108375566</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.989080383068996</v>
+        <v>-3.083595520899905</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8368211941864095</v>
+        <v>0.9678297158691854</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.566137921080924</v>
       </c>
       <c r="E19" t="n">
-        <v>2.396959860305307</v>
+        <v>2.886186993855752</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.289400444934325</v>
+        <v>-3.333447391407378</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9755940060841882</v>
+        <v>1.08461610721155</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.72840697218356</v>
       </c>
       <c r="E20" t="n">
-        <v>2.737449297941263</v>
+        <v>3.249556995759235</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.537045012512647</v>
+        <v>-3.574956461937953</v>
       </c>
       <c r="G20" t="n">
-        <v>1.080748600200291</v>
+        <v>1.189064413183978</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.861301368151144</v>
       </c>
       <c r="E21" t="n">
-        <v>3.077680129210279</v>
+        <v>3.551495787100654</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.755199000489186</v>
+        <v>-3.735956308098123</v>
       </c>
       <c r="G21" t="n">
-        <v>1.230656123972782</v>
+        <v>1.342449704655287</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.96548540955317</v>
       </c>
       <c r="E22" t="n">
-        <v>3.328647849595863</v>
+        <v>3.768049343221406</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.943719382465243</v>
+        <v>-3.907042412489675</v>
       </c>
       <c r="G22" t="n">
-        <v>1.322997504511761</v>
+        <v>1.431764658796242</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.039396872521356</v>
       </c>
       <c r="E23" t="n">
-        <v>3.582189435237324</v>
+        <v>3.99134130297887</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.072410205576376</v>
+        <v>-4.053686250720888</v>
       </c>
       <c r="G23" t="n">
-        <v>1.401749242452117</v>
+        <v>1.531517185478387</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.081872429354915</v>
       </c>
       <c r="E24" t="n">
-        <v>3.7437281463154</v>
+        <v>4.120783548363756</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.213705954353523</v>
+        <v>-4.173768043479722</v>
       </c>
       <c r="G24" t="n">
-        <v>1.460934115161718</v>
+        <v>1.590783787558673</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.092988332207747</v>
       </c>
       <c r="E25" t="n">
-        <v>3.902834493734606</v>
+        <v>4.241395362190685</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.174075748461141</v>
+        <v>-4.149560291819592</v>
       </c>
       <c r="G25" t="n">
-        <v>1.463784884404838</v>
+        <v>1.596172436737742</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.072722650880284</v>
       </c>
       <c r="E26" t="n">
-        <v>3.929048884421237</v>
+        <v>4.241405120921513</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.052869566934722</v>
+        <v>-4.032952607235514</v>
       </c>
       <c r="G26" t="n">
-        <v>1.438328625119405</v>
+        <v>1.55416780965078</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.024664021735115</v>
       </c>
       <c r="E27" t="n">
-        <v>4.087378192898266</v>
+        <v>4.357346162205905</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.917218634020878</v>
+        <v>-3.944710503564958</v>
       </c>
       <c r="G27" t="n">
-        <v>1.373992362373989</v>
+        <v>1.480579050239096</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.952151891875554</v>
       </c>
       <c r="E28" t="n">
-        <v>4.009180262932397</v>
+        <v>4.279845981494236</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.779399433101195</v>
+        <v>-3.804223204644841</v>
       </c>
       <c r="G28" t="n">
-        <v>1.306701643870406</v>
+        <v>1.424947575392229</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.861860338657993</v>
       </c>
       <c r="E29" t="n">
-        <v>3.949756911238187</v>
+        <v>4.199801211719175</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.711888228272968</v>
+        <v>-3.731480405211807</v>
       </c>
       <c r="G29" t="n">
-        <v>1.214488956594221</v>
+        <v>1.346539222792883</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.760302279682323</v>
       </c>
       <c r="E30" t="n">
-        <v>3.806601209357297</v>
+        <v>4.039890988848016</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.535006657610955</v>
+        <v>-3.584729220941487</v>
       </c>
       <c r="G30" t="n">
-        <v>1.137652979499531</v>
+        <v>1.263239306366017</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.651897959386575</v>
       </c>
       <c r="E31" t="n">
-        <v>3.630453678229751</v>
+        <v>3.822521358861775</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.384701770517563</v>
+        <v>-3.456642829221011</v>
       </c>
       <c r="G31" t="n">
-        <v>0.989253179639961</v>
+        <v>1.164320541248986</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.542193503942328</v>
       </c>
       <c r="E32" t="n">
-        <v>3.464705294640759</v>
+        <v>3.611596150746055</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.246587367990334</v>
+        <v>-3.347565530272404</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9190866851455108</v>
+        <v>1.103672468835866</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.432122493168711</v>
       </c>
       <c r="E33" t="n">
-        <v>3.314169552571218</v>
+        <v>3.411809314029107</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.10141618323313</v>
+        <v>-3.209559693625636</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7984199784576751</v>
+        <v>0.9919343909349454</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.324118881495443</v>
       </c>
       <c r="E34" t="n">
-        <v>3.039643036125563</v>
+        <v>3.129345289896253</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.922079681847206</v>
+        <v>-3.020199145917358</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6995676946944104</v>
+        <v>0.9116993259087384</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.218871923418749</v>
       </c>
       <c r="E35" t="n">
-        <v>2.743902258701258</v>
+        <v>2.801623931707341</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.83932930395009</v>
+        <v>-2.92980249745619</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6529703649115355</v>
+        <v>0.8674178649354759</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.115986339343256</v>
       </c>
       <c r="E36" t="n">
-        <v>2.463370463272342</v>
+        <v>2.497585793396555</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.764376761905198</v>
+        <v>-2.835873493395636</v>
       </c>
       <c r="G36" t="n">
-        <v>0.605134896154862</v>
+        <v>0.7930679245192109</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.017245069293215</v>
       </c>
       <c r="E37" t="n">
-        <v>2.188595099190575</v>
+        <v>2.198306256205757</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.702946771184487</v>
+        <v>-2.787363452370479</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5375129907238049</v>
+        <v>0.7422401849224115</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9220867372452441</v>
       </c>
       <c r="E38" t="n">
-        <v>1.957764519868505</v>
+        <v>1.95600245903338</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.628100355337349</v>
+        <v>-2.694644530932592</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5415726227482399</v>
+        <v>0.7481533658834839</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8328198687751567</v>
       </c>
       <c r="E39" t="n">
-        <v>1.691348118661569</v>
+        <v>1.670424789845727</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.505284288184653</v>
+        <v>-2.552118267190107</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4775218028795426</v>
+        <v>0.6594074677339344</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7492434402473775</v>
       </c>
       <c r="E40" t="n">
-        <v>1.477102502381632</v>
+        <v>1.439758279185702</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.443305978775546</v>
+        <v>-2.453794784653582</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4388930867383811</v>
+        <v>0.6020840729297683</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6710682935195875</v>
       </c>
       <c r="E41" t="n">
-        <v>1.191491287556759</v>
+        <v>1.154993024339478</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.328048658569789</v>
+        <v>-2.348308393689329</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3920200728096161</v>
+        <v>0.5663329625415041</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5985193877180511</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9476291430552898</v>
+        <v>0.8969898689476055</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.211836202584244</v>
+        <v>-2.230840720951037</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3819704098188383</v>
+        <v>0.5403344837744414</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.529407091543573</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8053785634586936</v>
+        <v>0.7372424948971379</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.064667832571028</v>
+        <v>-2.104953093270237</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3239480459191189</v>
+        <v>0.4671415628819674</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4634931049262186</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6142617491617199</v>
+        <v>0.5492551835925584</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.001389172279094</v>
+        <v>-2.028875247576745</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2881554609248358</v>
+        <v>0.409162503350297</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4000236368238412</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5343200559810287</v>
+        <v>0.4742477486867591</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.924503791609587</v>
+        <v>-1.931860044891846</v>
       </c>
       <c r="G45" t="n">
-        <v>0.249706671383315</v>
+        <v>0.3662295769933245</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3384065727612219</v>
       </c>
       <c r="E46" t="n">
-        <v>0.307800396002214</v>
+        <v>0.255299034068418</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.878807924586946</v>
+        <v>-1.877033665338286</v>
       </c>
       <c r="G46" t="n">
-        <v>0.188635314020532</v>
+        <v>0.2835121348127528</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2798912111247223</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1854545776912908</v>
+        <v>0.10571537817528</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.772315774426735</v>
+        <v>-1.782237963996073</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1447234649773788</v>
+        <v>0.2461239973280969</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2243917672024626</v>
       </c>
       <c r="E48" t="n">
-        <v>0.09371518886026195</v>
+        <v>0.04230131549310766</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.748573392242964</v>
+        <v>-1.759223217179661</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1386504847989984</v>
+        <v>0.2142159971240223</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1730040724634155</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.02889716478640014</v>
+        <v>-0.05613317260658467</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.691000539882007</v>
+        <v>-1.682348815082336</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07326271880686933</v>
+        <v>0.1754177230347248</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.125527211051674</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.1348989387225056</v>
+        <v>-0.1639592192868436</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.65440407943577</v>
+        <v>-1.657642148308626</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04308445364205216</v>
+        <v>0.1305690358320866</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.08145323653770632</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.2433477144137243</v>
+        <v>-0.2642832416431014</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.650847022048976</v>
+        <v>-1.651789959415228</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01343315994194533</v>
+        <v>0.07960894344843286</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.0406220977930456</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3363514688076519</v>
+        <v>-0.3493940125592324</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.616932992739077</v>
+        <v>-1.622260039929794</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.01384310264290457</v>
+        <v>0.0398537038173177</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.00208548040327847</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4411913438545523</v>
+        <v>-0.4480761284536844</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.568540666404532</v>
+        <v>-1.567460496886012</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.03203825627165264</v>
+        <v>0.0181996900307314</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.03406692819270357</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5131327075183393</v>
+        <v>-0.5184030320861193</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.575929855403335</v>
+        <v>-1.590335571867447</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.03784226143158716</v>
+        <v>-0.007262668461469776</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.06810955306045981</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.5691850276321625</v>
+        <v>-0.5699516979228348</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.558636774455497</v>
+        <v>-1.545033713601985</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.08235183273795343</v>
+        <v>-0.05139347902757551</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.09953106636887951</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.6086761716102458</v>
+        <v>-0.6349918091292175</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.515583083804529</v>
+        <v>-1.534036843800218</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1142945984206027</v>
+        <v>-0.09610737376065238</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1282689338130455</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.7065660005456021</v>
+        <v>-0.7166705563972872</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.599783853070952</v>
+        <v>-1.60244920642834</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1254738345047179</v>
+        <v>-0.1129796094415339</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1548584435219975</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.7805920730825139</v>
+        <v>-0.7764360735911526</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.601933213535812</v>
+        <v>-1.619906356038223</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1480402896237193</v>
+        <v>-0.1378570540047337</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1797250678905093</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.8912341235273186</v>
+        <v>-0.9154302866945908</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.614707392189623</v>
+        <v>-1.616498729217232</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1611578536185398</v>
+        <v>-0.1471650534525858</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2038168160786945</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.9824843559755956</v>
+        <v>-1.03232463399674</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.627890827617532</v>
+        <v>-1.651093430002382</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1939112038805872</v>
+        <v>-0.184572098478221</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2271738381118715</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.061451395914843</v>
+        <v>-1.143774219417559</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.652960397193908</v>
+        <v>-1.69204838360466</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.202137813968565</v>
+        <v>-0.1903138917291272</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2502108578551036</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.102073332827618</v>
+        <v>-1.226620964781601</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.623171871341533</v>
+        <v>-1.64835366632243</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2319812326818475</v>
+        <v>-0.2198444211352379</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2730342164481564</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.107386961763447</v>
+        <v>-1.263019810928572</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.68370405882607</v>
+        <v>-1.735948034234279</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2625211808079763</v>
+        <v>-0.2430238465343711</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2955643802976904</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.168837689787167</v>
+        <v>-1.349540718449344</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.784805730045182</v>
+        <v>-1.808613983662042</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2721560977385653</v>
+        <v>-0.255227749355423</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3176208366926448</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.164254745822082</v>
+        <v>-1.365572483437667</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.857991331889535</v>
+        <v>-1.878820732921158</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3002661218885298</v>
+        <v>-0.2837025060700828</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3386213536892749</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.189952533695508</v>
+        <v>-1.404964820266117</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.961317993737423</v>
+        <v>-1.951320174004169</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3451666523486916</v>
+        <v>-0.310815919834241</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3578467936036547</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.196939175047657</v>
+        <v>-1.431639701063693</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.034007120150903</v>
+        <v>-2.041696390122666</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3642187445282707</v>
+        <v>-0.3382562510811361</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3742156743075188</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.184702336510061</v>
+        <v>-1.442237682742868</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.182973536319172</v>
+        <v>-2.156890888498718</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4167884175778626</v>
+        <v>-0.3908521507198282</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.385918964428444</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.173119332937938</v>
+        <v>-1.431513447483607</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.322200129200452</v>
+        <v>-2.285588420737296</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.421360382970766</v>
+        <v>-0.3762219834466725</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3918186646209231</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.148020487169079</v>
+        <v>-1.415182211443001</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.445967672608874</v>
+        <v>-2.396818434714486</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4495039527579516</v>
+        <v>-0.414838501174299</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3909271891569118</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.265249680922763</v>
+        <v>-1.500521092692235</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.562438125040683</v>
+        <v>-2.500557402939856</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4809398743582233</v>
+        <v>-0.4470105970314056</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3836063954466938</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.260089751997474</v>
+        <v>-1.522752701359702</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.68348359246878</v>
+        <v>-2.623233798257576</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4860491798673418</v>
+        <v>-0.4451033750752144</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3705447527955397</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.220735230250982</v>
+        <v>-1.488642887512567</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.821536697967996</v>
+        <v>-2.752392430527776</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5314010516282971</v>
+        <v>-0.497528496924417</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3526641533008989</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.18699258865125</v>
+        <v>-1.439439366677947</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.910421048111167</v>
+        <v>-2.83840283444211</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5773774821622425</v>
+        <v>-0.5361297666351248</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3314490104366266</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.177206411392827</v>
+        <v>-1.424275518812637</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.036633153591996</v>
+        <v>-2.955072730935215</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5928682475102897</v>
+        <v>-0.5413031138153018</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3078288297894986</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.064463794137302</v>
+        <v>-1.2963245294824</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.080450464930253</v>
+        <v>-2.987253975602473</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5933653328618393</v>
+        <v>-0.5151710624200313</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2832984904417462</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9575160332315603</v>
+        <v>-1.187984319671642</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.11534585660904</v>
+        <v>-3.025384386550732</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6031399216274037</v>
+        <v>-0.5303403995714322</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2585012286189765</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7787415737492603</v>
+        <v>-0.9985636947767046</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.156584118365668</v>
+        <v>-3.043840281268789</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5806326288140469</v>
+        <v>-0.5154101513253165</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2340259898556547</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.5936727328829203</v>
+        <v>-0.8003114184824554</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.201528868074894</v>
+        <v>-3.095041292319759</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6135964017095724</v>
+        <v>-0.5332698485818531</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2105419032976503</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4067704704622757</v>
+        <v>-0.6129218294410891</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.214563787818015</v>
+        <v>-3.122022963217739</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5688660391182233</v>
+        <v>-0.4875794708453026</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1879145519327419</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.1504159306596529</v>
+        <v>-0.3289610599674957</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.241871766278056</v>
+        <v>-3.161724834789639</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5219088561360671</v>
+        <v>-0.4367767379962499</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1665868023712503</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1219331689700108</v>
+        <v>-0.0431985848147886</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.219365083385376</v>
+        <v>-3.125429980118054</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4455461774865335</v>
+        <v>-0.3651226469712113</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1468134914497572</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3385959008919002</v>
+        <v>0.1752121797666607</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.245018652009738</v>
+        <v>-3.149152234919493</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4108697473306994</v>
+        <v>-0.3166498111073361</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1287054610792326</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6278611504911714</v>
+        <v>0.4740458649427554</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.183878373610482</v>
+        <v>-3.05149631056367</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3538433838961095</v>
+        <v>-0.2598296008614871</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1135133286122401</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8539355683759601</v>
+        <v>0.6937039173081545</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.125471759684411</v>
+        <v>-2.976177816112729</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3375548423028759</v>
+        <v>-0.2196309488983761</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1019342693649621</v>
       </c>
       <c r="E86" t="n">
-        <v>1.111903958289258</v>
+        <v>0.9967387361056899</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.050503664662262</v>
+        <v>-2.918447604217171</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.3175433448987721</v>
+        <v>-0.2049397895575456</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.09484214349576929</v>
       </c>
       <c r="E87" t="n">
-        <v>1.316715321541256</v>
+        <v>1.197045225239227</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.932000041654513</v>
+        <v>-2.802793225650851</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2769628825920168</v>
+        <v>-0.1826465789017273</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.09462726696422184</v>
       </c>
       <c r="E88" t="n">
-        <v>1.453877332931743</v>
+        <v>1.353628330818725</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.766697510080224</v>
+        <v>-2.641895541204037</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2314213255005928</v>
+        <v>-0.1403046656805237</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1020005992588751</v>
       </c>
       <c r="E89" t="n">
-        <v>1.533736686821073</v>
+        <v>1.451890211366898</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.512304475174024</v>
+        <v>-2.399554538870377</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.2165093748747795</v>
+        <v>-0.1394465072883391</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1186890182001407</v>
       </c>
       <c r="E90" t="n">
-        <v>1.590768539541754</v>
+        <v>1.522721519399003</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.272544657144362</v>
+        <v>-2.144860203149863</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.174760304551375</v>
+        <v>-0.1204944420997467</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.14441354602118</v>
       </c>
       <c r="E91" t="n">
-        <v>1.588346544534387</v>
+        <v>1.549660495849612</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.921842097776259</v>
+        <v>-1.785054577681295</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1536948642178505</v>
+        <v>-0.09754739647845455</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1781938765445761</v>
       </c>
       <c r="E92" t="n">
-        <v>1.575016728144059</v>
+        <v>1.558349425810564</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.589797011909879</v>
+        <v>-1.485385911098732</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1456786767633508</v>
+        <v>-0.0775389486777345</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.2186368981605182</v>
       </c>
       <c r="E93" t="n">
-        <v>1.530797479079824</v>
+        <v>1.547120786151633</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.254558381380046</v>
+        <v>-1.152172217215703</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1165220287320866</v>
+        <v>-0.04866835344386519</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2614570373632393</v>
       </c>
       <c r="E94" t="n">
-        <v>1.519169341377623</v>
+        <v>1.53893443082832</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9364371746431475</v>
+        <v>-0.8445410361981943</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.110115421943525</v>
+        <v>-0.06852798059945869</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.3012831698297201</v>
       </c>
       <c r="E95" t="n">
-        <v>1.488744668259399</v>
+        <v>1.473378326729409</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6832395842633726</v>
+        <v>-0.6136891096524381</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1628985672299787</v>
+        <v>-0.1323159246564776</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3326413122191835</v>
       </c>
       <c r="E96" t="n">
-        <v>1.412832111069306</v>
+        <v>1.38676288150374</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4230035092739253</v>
+        <v>-0.3561988975497105</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2322306902386375</v>
+        <v>-0.1913672247378711</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3506794458331538</v>
       </c>
       <c r="E97" t="n">
-        <v>1.32406120617201</v>
+        <v>1.284975049523287</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2424877262595095</v>
+        <v>-0.1723810039913808</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2635074225422779</v>
+        <v>-0.2160647427014302</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3539051403899697</v>
       </c>
       <c r="E98" t="n">
-        <v>1.237004788297052</v>
+        <v>1.194279234970174</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.09170008695047092</v>
+        <v>-0.05033587657409438</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3014097231574324</v>
+        <v>-0.2675603454392687</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3439107602903255</v>
       </c>
       <c r="E99" t="n">
-        <v>1.155983535518517</v>
+        <v>1.1148407263478</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1087204573496177</v>
+        <v>0.1659047902394853</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3448885285200945</v>
+        <v>-0.3078132803426103</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3279175112477757</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9717264990729287</v>
+        <v>0.9435689011101779</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1739221975353386</v>
+        <v>0.2174931009201896</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3163399714035481</v>
+        <v>-0.2914985121602765</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3137403446938602</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8362429893848524</v>
+        <v>0.8200477656551612</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2195906181275261</v>
+        <v>0.2545439522706038</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3690676139084177</v>
+        <v>-0.3409033068182227</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3106951942743886</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7134226527874192</v>
+        <v>0.6984905747792732</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2163909742573058</v>
+        <v>0.2558680900598239</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3374786022182824</v>
+        <v>-0.3184655449620151</v>
       </c>
     </row>
   </sheetData>
